--- a/field_data/stage_3/Data_clean.xlsx
+++ b/field_data/stage_3/Data_clean.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="107" windowWidth="15120" windowHeight="8013"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="137">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -238,9 +238,6 @@
     <t>ulota crispa</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>M0Y</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>Bryaceae</t>
   </si>
   <si>
-    <t>only 1 sample</t>
-  </si>
-  <si>
     <t>atrichum undulatum</t>
   </si>
   <si>
@@ -377,6 +371,60 @@
   </si>
   <si>
     <t>dicranella heteromalla</t>
+  </si>
+  <si>
+    <t>Department_species_age</t>
+  </si>
+  <si>
+    <t>Department_ID</t>
+  </si>
+  <si>
+    <t>Department_age</t>
+  </si>
+  <si>
+    <t>EI168</t>
+  </si>
+  <si>
+    <t>BU40</t>
+  </si>
+  <si>
+    <t>DGL36</t>
+  </si>
+  <si>
+    <t>DGL27</t>
+  </si>
+  <si>
+    <t>ELA41</t>
+  </si>
+  <si>
+    <t>ERL1</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>FI77</t>
+  </si>
+  <si>
+    <t>FI43</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>FI</t>
   </si>
 </sst>
 </file>
@@ -745,18 +793,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M268"/>
+  <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="K255" sqref="K255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="26.9375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.7">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,11 +840,20 @@
       <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.7">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -829,10 +888,17 @@
       <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.7">
+      <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -867,9 +933,17 @@
       <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.7">
+      <c r="L3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -904,9 +978,17 @@
       <c r="K4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.7">
+      <c r="L4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -941,10 +1023,17 @@
       <c r="K5" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.7">
+      <c r="L5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -979,9 +1068,17 @@
       <c r="K6" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.7">
+      <c r="L6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -1016,10 +1113,17 @@
       <c r="K7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.7">
+      <c r="L7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -1054,9 +1158,17 @@
       <c r="K8" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.7">
+      <c r="L8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1091,9 +1203,17 @@
       <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.7">
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1128,9 +1248,17 @@
       <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.7">
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N10">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -1165,9 +1293,17 @@
       <c r="K11" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.7">
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1202,9 +1338,17 @@
       <c r="K12" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.7">
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1239,10 +1383,17 @@
       <c r="K13" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.7">
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -1277,10 +1428,17 @@
       <c r="K14" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.7">
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1315,9 +1473,17 @@
       <c r="K15" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.7">
+      <c r="L15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1352,9 +1518,17 @@
       <c r="K16" t="s">
         <v>72</v>
       </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.7">
+      <c r="L16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1389,9 +1563,17 @@
       <c r="K17" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.7">
+      <c r="L17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75">
       <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
@@ -1424,11 +1606,17 @@
         <v>43</v>
       </c>
       <c r="K18" s="6"/>
-      <c r="L18" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.7">
+      <c r="L18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -1459,11 +1647,17 @@
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.7">
+      <c r="L19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
@@ -1471,7 +1665,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1496,9 +1690,17 @@
         <v>43</v>
       </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.7">
+      <c r="L20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N20">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -1533,9 +1735,17 @@
       <c r="K21" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.7">
+      <c r="L21" t="s">
+        <v>122</v>
+      </c>
+      <c r="M21" t="s">
+        <v>131</v>
+      </c>
+      <c r="N21">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1570,9 +1780,17 @@
       <c r="K22" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.7">
+      <c r="L22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N22">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1607,9 +1825,17 @@
       <c r="K23" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.7">
+      <c r="L23" t="s">
+        <v>122</v>
+      </c>
+      <c r="M23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1644,9 +1870,17 @@
       <c r="K24" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.7">
+      <c r="L24" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1888,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1676,14 +1910,22 @@
         <v>0.1</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" t="s">
         <v>77</v>
       </c>
-      <c r="K25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.7">
+      <c r="L25" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1718,9 +1960,17 @@
       <c r="K26" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.7">
+      <c r="L26" t="s">
+        <v>122</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -1750,14 +2000,22 @@
         <v>0.1</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" t="s">
         <v>79</v>
       </c>
-      <c r="K27" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.7">
+      <c r="L27" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -1792,9 +2050,17 @@
       <c r="K28" t="s">
         <v>53</v>
       </c>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.7">
+      <c r="L28" t="s">
+        <v>122</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N28">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1824,14 +2090,22 @@
         <v>0.1</v>
       </c>
       <c r="J29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" t="s">
         <v>81</v>
       </c>
-      <c r="K29" t="s">
-        <v>82</v>
-      </c>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.7">
+      <c r="L29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" t="s">
+        <v>131</v>
+      </c>
+      <c r="N29">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -1866,9 +2140,17 @@
       <c r="K30" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.7">
+      <c r="L30" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1903,9 +2185,17 @@
       <c r="K31" t="s">
         <v>60</v>
       </c>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.7">
+      <c r="L31" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1940,10 +2230,17 @@
       <c r="K32" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.7">
+      <c r="L32" t="s">
+        <v>122</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -1951,7 +2248,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D33" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1973,14 +2270,22 @@
         <v>62.5</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" t="s">
         <v>77</v>
       </c>
-      <c r="K33" t="s">
-        <v>78</v>
-      </c>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.7">
+      <c r="L33" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" t="s">
+        <v>131</v>
+      </c>
+      <c r="N33">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -2013,11 +2318,17 @@
         <v>43</v>
       </c>
       <c r="K34" s="6"/>
-      <c r="L34" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.7">
+      <c r="L34" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N34">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -2052,9 +2363,17 @@
       <c r="K35" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.7">
+      <c r="L35" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" t="s">
+        <v>131</v>
+      </c>
+      <c r="N35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -2089,9 +2408,17 @@
       <c r="K36" t="s">
         <v>60</v>
       </c>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.7">
+      <c r="L36" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -2126,9 +2453,17 @@
       <c r="K37" t="s">
         <v>60</v>
       </c>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" ht="15.7">
+      <c r="L37" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" t="s">
+        <v>131</v>
+      </c>
+      <c r="N37">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -2163,9 +2498,17 @@
       <c r="K38" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.7">
+      <c r="L38" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N38">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -2200,9 +2543,17 @@
       <c r="K39" t="s">
         <v>72</v>
       </c>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.7">
+      <c r="L39" t="s">
+        <v>122</v>
+      </c>
+      <c r="M39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N39">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -2235,11 +2586,17 @@
         <v>43</v>
       </c>
       <c r="K40" s="6"/>
-      <c r="L40" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.7">
+      <c r="L40" t="s">
+        <v>122</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N40">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -2274,9 +2631,17 @@
       <c r="K41" t="s">
         <v>53</v>
       </c>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.7">
+      <c r="L41" t="s">
+        <v>122</v>
+      </c>
+      <c r="M41" t="s">
+        <v>131</v>
+      </c>
+      <c r="N41">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -2311,9 +2676,17 @@
       <c r="K42" t="s">
         <v>60</v>
       </c>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.7">
+      <c r="L42" t="s">
+        <v>122</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N42">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -2348,9 +2721,17 @@
       <c r="K43" t="s">
         <v>60</v>
       </c>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.7">
+      <c r="L43" t="s">
+        <v>122</v>
+      </c>
+      <c r="M43" t="s">
+        <v>131</v>
+      </c>
+      <c r="N43">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -2385,9 +2766,17 @@
       <c r="K44" t="s">
         <v>60</v>
       </c>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.7">
+      <c r="L44" t="s">
+        <v>122</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N44">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -2417,14 +2806,22 @@
         <v>3</v>
       </c>
       <c r="J45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" t="s">
         <v>77</v>
       </c>
-      <c r="K45" t="s">
-        <v>78</v>
-      </c>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.7">
+      <c r="L45" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" t="s">
+        <v>131</v>
+      </c>
+      <c r="N45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -2459,9 +2856,17 @@
       <c r="K46" t="s">
         <v>72</v>
       </c>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.7">
+      <c r="L46" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N46">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -2496,9 +2901,17 @@
       <c r="K47" t="s">
         <v>72</v>
       </c>
-      <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.7">
+      <c r="L47" t="s">
+        <v>122</v>
+      </c>
+      <c r="M47" t="s">
+        <v>131</v>
+      </c>
+      <c r="N47">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75">
       <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
@@ -2533,9 +2946,17 @@
       <c r="K48" t="s">
         <v>72</v>
       </c>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.7">
+      <c r="L48" t="s">
+        <v>122</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N48">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75">
       <c r="A49" s="6" t="s">
         <v>5</v>
       </c>
@@ -2568,11 +2989,17 @@
         <v>43</v>
       </c>
       <c r="K49" s="6"/>
-      <c r="L49" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.7">
+      <c r="L49" t="s">
+        <v>122</v>
+      </c>
+      <c r="M49" t="s">
+        <v>131</v>
+      </c>
+      <c r="N49">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.75">
       <c r="A50" s="6" t="s">
         <v>5</v>
       </c>
@@ -2605,11 +3032,17 @@
         <v>43</v>
       </c>
       <c r="K50" s="6"/>
-      <c r="L50" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.7">
+      <c r="L50" t="s">
+        <v>122</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N50">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.75">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -2639,14 +3072,22 @@
         <v>0.1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s">
-        <v>80</v>
-      </c>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.7">
+        <v>79</v>
+      </c>
+      <c r="L51" t="s">
+        <v>122</v>
+      </c>
+      <c r="M51" t="s">
+        <v>131</v>
+      </c>
+      <c r="N51">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -2681,9 +3122,17 @@
       <c r="K52" t="s">
         <v>69</v>
       </c>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.7">
+      <c r="L52" t="s">
+        <v>122</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N52">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.75">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -2713,14 +3162,22 @@
         <v>0.1</v>
       </c>
       <c r="J53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K53" t="s">
         <v>79</v>
       </c>
-      <c r="K53" t="s">
-        <v>80</v>
-      </c>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.7">
+      <c r="L53" t="s">
+        <v>122</v>
+      </c>
+      <c r="M53" t="s">
+        <v>131</v>
+      </c>
+      <c r="N53">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2755,9 +3212,17 @@
       <c r="K54" t="s">
         <v>53</v>
       </c>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.7">
+      <c r="L54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -2792,9 +3257,17 @@
       <c r="K55" t="s">
         <v>57</v>
       </c>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.7">
+      <c r="L55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M55" t="s">
+        <v>132</v>
+      </c>
+      <c r="N55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
@@ -2829,9 +3302,17 @@
       <c r="K56" t="s">
         <v>60</v>
       </c>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.7">
+      <c r="L56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
@@ -2866,9 +3347,17 @@
       <c r="K57" t="s">
         <v>63</v>
       </c>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.7">
+      <c r="L57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M57" t="s">
+        <v>132</v>
+      </c>
+      <c r="N57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
@@ -2903,9 +3392,17 @@
       <c r="K58" t="s">
         <v>57</v>
       </c>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.7">
+      <c r="L58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
@@ -2940,9 +3437,17 @@
       <c r="K59" t="s">
         <v>53</v>
       </c>
-      <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.7">
+      <c r="L59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M59" t="s">
+        <v>132</v>
+      </c>
+      <c r="N59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75">
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
@@ -2972,14 +3477,22 @@
         <v>0.1</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K60" t="s">
-        <v>86</v>
-      </c>
-      <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.7">
+        <v>84</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75">
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
@@ -3014,9 +3527,17 @@
       <c r="K61" t="s">
         <v>60</v>
       </c>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.7">
+      <c r="L61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M61" t="s">
+        <v>132</v>
+      </c>
+      <c r="N61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
@@ -3051,9 +3572,17 @@
       <c r="K62" t="s">
         <v>60</v>
       </c>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.7">
+      <c r="L62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.75">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
@@ -3088,9 +3617,17 @@
       <c r="K63" t="s">
         <v>60</v>
       </c>
-      <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.7">
+      <c r="L63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M63" t="s">
+        <v>132</v>
+      </c>
+      <c r="N63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
@@ -3120,16 +3657,22 @@
         <v>0.1</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15.7">
+        <v>123</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -3164,9 +3707,17 @@
       <c r="K65" t="s">
         <v>72</v>
       </c>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.7">
+      <c r="L65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M65" t="s">
+        <v>132</v>
+      </c>
+      <c r="N65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -3201,9 +3752,17 @@
       <c r="K66" t="s">
         <v>72</v>
       </c>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.7">
+      <c r="L66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -3238,9 +3797,17 @@
       <c r="K67" t="s">
         <v>72</v>
       </c>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.7">
+      <c r="L67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M67" t="s">
+        <v>132</v>
+      </c>
+      <c r="N67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
@@ -3248,7 +3815,7 @@
         <v>30</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68" s="4" t="str">
         <f t="shared" si="1"/>
@@ -3275,9 +3842,17 @@
       <c r="K68" t="s">
         <v>72</v>
       </c>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.7">
+      <c r="L68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75">
       <c r="A69" s="6" t="s">
         <v>6</v>
       </c>
@@ -3310,11 +3885,17 @@
         <v>43</v>
       </c>
       <c r="K69" s="6"/>
-      <c r="L69" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="15.7">
+      <c r="L69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M69" t="s">
+        <v>132</v>
+      </c>
+      <c r="N69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75">
       <c r="A70" s="6" t="s">
         <v>6</v>
       </c>
@@ -3347,11 +3928,17 @@
         <v>43</v>
       </c>
       <c r="K70" s="6"/>
-      <c r="L70" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="15.7">
+      <c r="L70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
@@ -3381,14 +3968,22 @@
         <v>0.1</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s">
         <v>53</v>
       </c>
-      <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.7">
+      <c r="L71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M71" t="s">
+        <v>132</v>
+      </c>
+      <c r="N71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75">
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
@@ -3423,9 +4018,17 @@
       <c r="K72" t="s">
         <v>60</v>
       </c>
-      <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.7">
+      <c r="L72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N72">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
@@ -3455,14 +4058,22 @@
         <v>62.5</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s">
-        <v>90</v>
-      </c>
-      <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.7">
+        <v>88</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M73" t="s">
+        <v>132</v>
+      </c>
+      <c r="N73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
@@ -3497,9 +4108,17 @@
       <c r="K74" t="s">
         <v>53</v>
       </c>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.7">
+      <c r="L74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N74">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -3534,9 +4153,17 @@
       <c r="K75" t="s">
         <v>60</v>
       </c>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.7">
+      <c r="L75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M75" t="s">
+        <v>132</v>
+      </c>
+      <c r="N75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
@@ -3571,9 +4198,17 @@
       <c r="K76" t="s">
         <v>60</v>
       </c>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.7">
+      <c r="L76" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N76">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
@@ -3603,14 +4238,22 @@
         <v>0.5</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s">
-        <v>78</v>
-      </c>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.7">
+        <v>77</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M77" t="s">
+        <v>132</v>
+      </c>
+      <c r="N77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15.75">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
@@ -3640,14 +4283,22 @@
         <v>0.1</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.7">
+        <v>77</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75">
       <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
@@ -3682,9 +4333,17 @@
       <c r="K79" t="s">
         <v>72</v>
       </c>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.7">
+      <c r="L79" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M79" t="s">
+        <v>132</v>
+      </c>
+      <c r="N79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
@@ -3719,9 +4378,17 @@
       <c r="K80" t="s">
         <v>72</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" ht="15.7">
+      <c r="L80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -3756,9 +4423,17 @@
       <c r="K81" t="s">
         <v>53</v>
       </c>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" ht="15.7">
+      <c r="L81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M81" t="s">
+        <v>132</v>
+      </c>
+      <c r="N81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75">
       <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
@@ -3793,9 +4468,17 @@
       <c r="K82" t="s">
         <v>57</v>
       </c>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" ht="15.7">
+      <c r="L82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75">
       <c r="A83" s="2" t="s">
         <v>9</v>
       </c>
@@ -3830,9 +4513,17 @@
       <c r="K83" t="s">
         <v>60</v>
       </c>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12" ht="15.7">
+      <c r="L83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M83" t="s">
+        <v>132</v>
+      </c>
+      <c r="N83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75">
       <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
@@ -3867,9 +4558,17 @@
       <c r="K84" t="s">
         <v>60</v>
       </c>
-      <c r="L84" s="2"/>
-    </row>
-    <row r="85" spans="1:12" ht="15.7">
+      <c r="L84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N84">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75">
       <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
@@ -3899,14 +4598,22 @@
         <v>0.1</v>
       </c>
       <c r="J85" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K85" t="s">
         <v>79</v>
       </c>
-      <c r="K85" t="s">
-        <v>80</v>
-      </c>
-      <c r="L85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" ht="15.7">
+      <c r="L85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M85" t="s">
+        <v>132</v>
+      </c>
+      <c r="N85">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -3941,9 +4648,17 @@
       <c r="K86" t="s">
         <v>53</v>
       </c>
-      <c r="L86" s="2"/>
-    </row>
-    <row r="87" spans="1:12" ht="15.7">
+      <c r="L86" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -3978,9 +4693,17 @@
       <c r="K87" t="s">
         <v>60</v>
       </c>
-      <c r="L87" s="2"/>
-    </row>
-    <row r="88" spans="1:12" ht="15.7">
+      <c r="L87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M87" t="s">
+        <v>132</v>
+      </c>
+      <c r="N87">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15.75">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
@@ -4015,9 +4738,17 @@
       <c r="K88" t="s">
         <v>53</v>
       </c>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" ht="15.7">
+      <c r="L88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75">
       <c r="A89" s="2" t="s">
         <v>9</v>
       </c>
@@ -4052,9 +4783,17 @@
       <c r="K89" t="s">
         <v>60</v>
       </c>
-      <c r="L89" s="5"/>
-    </row>
-    <row r="90" spans="1:12" ht="15.7">
+      <c r="L89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M89" t="s">
+        <v>132</v>
+      </c>
+      <c r="N89">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15.75">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -4089,9 +4828,17 @@
       <c r="K90" t="s">
         <v>60</v>
       </c>
-      <c r="L90" s="5"/>
-    </row>
-    <row r="91" spans="1:12" ht="15.7">
+      <c r="L90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15.75">
       <c r="A91" s="2" t="s">
         <v>9</v>
       </c>
@@ -4126,9 +4873,17 @@
       <c r="K91" t="s">
         <v>60</v>
       </c>
-      <c r="L91" s="5"/>
-    </row>
-    <row r="92" spans="1:12" ht="15.7">
+      <c r="L91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M91" t="s">
+        <v>132</v>
+      </c>
+      <c r="N91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -4163,9 +4918,17 @@
       <c r="K92" t="s">
         <v>72</v>
       </c>
-      <c r="L92" s="5"/>
-    </row>
-    <row r="93" spans="1:12" ht="15.7">
+      <c r="L92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N92">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -4200,9 +4963,17 @@
       <c r="K93" t="s">
         <v>72</v>
       </c>
-      <c r="L93" s="5"/>
-    </row>
-    <row r="94" spans="1:12" ht="15.7">
+      <c r="L93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M93" t="s">
+        <v>132</v>
+      </c>
+      <c r="N93">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15.75">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -4237,9 +5008,17 @@
       <c r="K94" t="s">
         <v>72</v>
       </c>
-      <c r="L94" s="5"/>
-    </row>
-    <row r="95" spans="1:12" ht="15.7">
+      <c r="L94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15.75">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
@@ -4269,14 +5048,22 @@
         <v>0.5</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K95" t="s">
-        <v>80</v>
-      </c>
-      <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="1:12" ht="15.7">
+        <v>79</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M95" t="s">
+        <v>132</v>
+      </c>
+      <c r="N95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -4311,9 +5098,17 @@
       <c r="K96" t="s">
         <v>53</v>
       </c>
-      <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="1:12" ht="15.7">
+      <c r="L96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15.75">
       <c r="A97" s="2" t="s">
         <v>9</v>
       </c>
@@ -4348,9 +5143,17 @@
       <c r="K97" t="s">
         <v>57</v>
       </c>
-      <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="1:12" ht="15.7">
+      <c r="L97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M97" t="s">
+        <v>132</v>
+      </c>
+      <c r="N97">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15.75">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -4358,7 +5161,7 @@
         <v>42</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D98" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4380,14 +5183,22 @@
         <v>0.5</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K98" t="s">
         <v>53</v>
       </c>
-      <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="1:12" ht="15.7">
+      <c r="L98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -4422,9 +5233,17 @@
       <c r="K99" t="s">
         <v>60</v>
       </c>
-      <c r="L99" s="5"/>
-    </row>
-    <row r="100" spans="1:12" ht="15.7">
+      <c r="L99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M99" t="s">
+        <v>132</v>
+      </c>
+      <c r="N99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15.75">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -4432,7 +5251,7 @@
         <v>42</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D100" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4459,9 +5278,17 @@
       <c r="K100" t="s">
         <v>63</v>
       </c>
-      <c r="L100" s="5"/>
-    </row>
-    <row r="101" spans="1:12" ht="15.7">
+      <c r="L100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15.75">
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
@@ -4491,14 +5318,22 @@
         <v>0.5</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K101" t="s">
         <v>63</v>
       </c>
-      <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="1:12" ht="15.7">
+      <c r="L101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M101" t="s">
+        <v>132</v>
+      </c>
+      <c r="N101">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15.75">
       <c r="A102" s="2" t="s">
         <v>9</v>
       </c>
@@ -4528,14 +5363,22 @@
         <v>0.5</v>
       </c>
       <c r="J102" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K102" t="s">
         <v>79</v>
       </c>
-      <c r="K102" t="s">
-        <v>80</v>
-      </c>
-      <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="1:12" ht="15.7">
+      <c r="L102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N102">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15.75">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -4550,7 +5393,7 @@
         <v>P17DW01M03</v>
       </c>
       <c r="E103" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>3</v>
@@ -4565,14 +5408,22 @@
         <v>0.5</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s">
         <v>53</v>
       </c>
-      <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="1:12" ht="15.7">
+      <c r="L103" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N103">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="15.75">
       <c r="A104" s="2" t="s">
         <v>11</v>
       </c>
@@ -4587,7 +5438,7 @@
         <v>P17DW01M02</v>
       </c>
       <c r="E104" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>3</v>
@@ -4602,14 +5453,22 @@
         <v>3</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K104" t="s">
         <v>53</v>
       </c>
-      <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="1:12" ht="15.7">
+      <c r="L104" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N104">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="15.75">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
@@ -4624,7 +5483,7 @@
         <v>P17DW01M04</v>
       </c>
       <c r="E105" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>3</v>
@@ -4639,14 +5498,22 @@
         <v>0.1</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K105" t="s">
-        <v>90</v>
-      </c>
-      <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="1:12" ht="15.7">
+        <v>88</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N105">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15.75">
       <c r="A106" s="5" t="s">
         <v>11</v>
       </c>
@@ -4661,7 +5528,7 @@
         <v>P17DW01M01</v>
       </c>
       <c r="E106" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>3</v>
@@ -4681,9 +5548,17 @@
       <c r="K106" t="s">
         <v>60</v>
       </c>
-      <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="1:12" ht="15.7">
+      <c r="L106" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N106">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="15.75">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
@@ -4698,7 +5573,7 @@
         <v>P17EP01M02</v>
       </c>
       <c r="E107" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>31</v>
@@ -4718,9 +5593,17 @@
       <c r="K107" t="s">
         <v>53</v>
       </c>
-      <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="1:12" ht="15.7">
+      <c r="L107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N107">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15.75">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
@@ -4735,7 +5618,7 @@
         <v>P17EP01M01</v>
       </c>
       <c r="E108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>31</v>
@@ -4755,9 +5638,17 @@
       <c r="K108" t="s">
         <v>60</v>
       </c>
-      <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" ht="15.7">
+      <c r="L108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N108">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="15.75">
       <c r="A109" s="2" t="s">
         <v>11</v>
       </c>
@@ -4772,7 +5663,7 @@
         <v>P17EP01M01</v>
       </c>
       <c r="E109" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>31</v>
@@ -4792,9 +5683,17 @@
       <c r="K109" t="s">
         <v>60</v>
       </c>
-      <c r="L109" s="2"/>
-    </row>
-    <row r="110" spans="1:12" ht="15.7">
+      <c r="L109" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N109">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="15.75">
       <c r="A110" s="2" t="s">
         <v>11</v>
       </c>
@@ -4809,7 +5708,7 @@
         <v>P17EP01M01</v>
       </c>
       <c r="E110" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>31</v>
@@ -4829,9 +5728,17 @@
       <c r="K110" t="s">
         <v>60</v>
       </c>
-      <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="1:12" ht="15.7">
+      <c r="L110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N110">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="15.75">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +5753,7 @@
         <v>P17EP01M02</v>
       </c>
       <c r="E111" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>31</v>
@@ -4866,9 +5773,17 @@
       <c r="K111" t="s">
         <v>72</v>
       </c>
-      <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="1:12" ht="15.7">
+      <c r="L111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N111">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
@@ -4883,7 +5798,7 @@
         <v>P17EP01M02</v>
       </c>
       <c r="E112" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>31</v>
@@ -4903,9 +5818,17 @@
       <c r="K112" t="s">
         <v>72</v>
       </c>
-      <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="1:12" ht="15.7">
+      <c r="L112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N112">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="15.75">
       <c r="A113" s="2" t="s">
         <v>11</v>
       </c>
@@ -4920,7 +5843,7 @@
         <v>P17EP01M03</v>
       </c>
       <c r="E113" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>31</v>
@@ -4940,9 +5863,17 @@
       <c r="K113" t="s">
         <v>72</v>
       </c>
-      <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="1:12" ht="15.7">
+      <c r="L113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N113">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="15.75">
       <c r="A114" s="6" t="s">
         <v>11</v>
       </c>
@@ -4957,7 +5888,7 @@
         <v>P17EP01M03</v>
       </c>
       <c r="E114" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>31</v>
@@ -4975,11 +5906,17 @@
         <v>43</v>
       </c>
       <c r="K114" s="6"/>
-      <c r="L114" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="15.7">
+      <c r="L114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N114">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75">
       <c r="A115" s="6" t="s">
         <v>11</v>
       </c>
@@ -4994,7 +5931,7 @@
         <v>P17EP01M03</v>
       </c>
       <c r="E115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>31</v>
@@ -5012,11 +5949,17 @@
         <v>43</v>
       </c>
       <c r="K115" s="6"/>
-      <c r="L115" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="15.7">
+      <c r="L115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N115">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="15.75">
       <c r="A116" s="2" t="s">
         <v>11</v>
       </c>
@@ -5031,7 +5974,7 @@
         <v>P17EP02M03</v>
       </c>
       <c r="E116" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>33</v>
@@ -5051,9 +5994,17 @@
       <c r="K116" t="s">
         <v>57</v>
       </c>
-      <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="1:12" ht="15.7">
+      <c r="L116" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N116">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75">
       <c r="A117" s="2" t="s">
         <v>11</v>
       </c>
@@ -5068,7 +6019,7 @@
         <v>P17EP02M01</v>
       </c>
       <c r="E117" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>33</v>
@@ -5088,9 +6039,17 @@
       <c r="K117" t="s">
         <v>60</v>
       </c>
-      <c r="L117" s="2"/>
-    </row>
-    <row r="118" spans="1:12" ht="15.7">
+      <c r="L117" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N117">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75">
       <c r="A118" s="2" t="s">
         <v>11</v>
       </c>
@@ -5105,7 +6064,7 @@
         <v>P17EP02M02</v>
       </c>
       <c r="E118" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>33</v>
@@ -5125,9 +6084,17 @@
       <c r="K118" t="s">
         <v>57</v>
       </c>
-      <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="1:12" ht="15.7">
+      <c r="L118" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N118">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75">
       <c r="A119" s="2" t="s">
         <v>11</v>
       </c>
@@ -5142,7 +6109,7 @@
         <v>P17EP03M01</v>
       </c>
       <c r="E119" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>38</v>
@@ -5162,9 +6129,17 @@
       <c r="K119" t="s">
         <v>60</v>
       </c>
-      <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="1:12" ht="15.7">
+      <c r="L119" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N119">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
@@ -5179,7 +6154,7 @@
         <v>P17EP03M02</v>
       </c>
       <c r="E120" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>38</v>
@@ -5199,9 +6174,17 @@
       <c r="K120" t="s">
         <v>57</v>
       </c>
-      <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="1:12" ht="15.7">
+      <c r="L120" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N120">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -5216,7 +6199,7 @@
         <v>P17EP04M01</v>
       </c>
       <c r="E121" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>36</v>
@@ -5236,9 +6219,17 @@
       <c r="K121" t="s">
         <v>60</v>
       </c>
-      <c r="L121" s="2"/>
-    </row>
-    <row r="122" spans="1:12" ht="15.7">
+      <c r="L121" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N121">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15.75">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
@@ -5253,7 +6244,7 @@
         <v>P17EP04M01</v>
       </c>
       <c r="E122" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>36</v>
@@ -5273,9 +6264,17 @@
       <c r="K122" t="s">
         <v>60</v>
       </c>
-      <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="1:12" ht="15.7">
+      <c r="L122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N122">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
@@ -5290,7 +6289,7 @@
         <v>P17SL01M01</v>
       </c>
       <c r="E123" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>3</v>
@@ -5305,14 +6304,22 @@
         <v>0.1</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K123" t="s">
-        <v>80</v>
-      </c>
-      <c r="L123" s="2"/>
-    </row>
-    <row r="124" spans="1:12" ht="15.7">
+        <v>79</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N123">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15.75">
       <c r="A124" s="2" t="s">
         <v>11</v>
       </c>
@@ -5327,7 +6334,7 @@
         <v>P17SL01M02</v>
       </c>
       <c r="E124" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>3</v>
@@ -5347,9 +6354,17 @@
       <c r="K124" t="s">
         <v>53</v>
       </c>
-      <c r="L124" s="2"/>
-    </row>
-    <row r="125" spans="1:12" ht="15.7">
+      <c r="L124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N124">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75">
       <c r="A125" s="2" t="s">
         <v>11</v>
       </c>
@@ -5364,7 +6379,7 @@
         <v>P17SL01M04</v>
       </c>
       <c r="E125" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>3</v>
@@ -5379,14 +6394,22 @@
         <v>0.1</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K125" t="s">
         <v>63</v>
       </c>
-      <c r="L125" s="2"/>
-    </row>
-    <row r="126" spans="1:12" ht="15.7">
+      <c r="L125" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N125">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15.75">
       <c r="A126" s="2" t="s">
         <v>11</v>
       </c>
@@ -5401,7 +6424,7 @@
         <v>P17SL01M05</v>
       </c>
       <c r="E126" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>3</v>
@@ -5416,14 +6439,22 @@
         <v>0.1</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K126" t="s">
         <v>63</v>
       </c>
-      <c r="L126" s="2"/>
-    </row>
-    <row r="127" spans="1:12" ht="15.7">
+      <c r="L126" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N126">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15.75">
       <c r="A127" s="2" t="s">
         <v>12</v>
       </c>
@@ -5438,7 +6469,7 @@
         <v>P18DW01M03</v>
       </c>
       <c r="E127" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>3</v>
@@ -5453,14 +6484,22 @@
         <v>0.1</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K127" t="s">
         <v>53</v>
       </c>
-      <c r="L127" s="2"/>
-    </row>
-    <row r="128" spans="1:12" ht="15.7">
+      <c r="L127" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N127">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15.75">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
@@ -5475,7 +6514,7 @@
         <v>P18DW01M04</v>
       </c>
       <c r="E128" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>3</v>
@@ -5490,14 +6529,22 @@
         <v>0.1</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K128" t="s">
-        <v>90</v>
-      </c>
-      <c r="L128" s="2"/>
-    </row>
-    <row r="129" spans="1:12" ht="15.7">
+        <v>88</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N128">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
@@ -5512,7 +6559,7 @@
         <v>P18DW01M01</v>
       </c>
       <c r="E129" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>3</v>
@@ -5532,9 +6579,17 @@
       <c r="K129" t="s">
         <v>60</v>
       </c>
-      <c r="L129" s="2"/>
-    </row>
-    <row r="130" spans="1:12" ht="15.7">
+      <c r="L129" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N129">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75">
       <c r="A130" s="2" t="s">
         <v>12</v>
       </c>
@@ -5549,7 +6604,7 @@
         <v>P18DW01M02</v>
       </c>
       <c r="E130" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>3</v>
@@ -5564,14 +6619,22 @@
         <v>0.1</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K130" t="s">
-        <v>90</v>
-      </c>
-      <c r="L130" s="2"/>
-    </row>
-    <row r="131" spans="1:12" ht="15.7">
+        <v>88</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N130">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75">
       <c r="A131" s="2" t="s">
         <v>12</v>
       </c>
@@ -5586,7 +6649,7 @@
         <v>P18EP01M01</v>
       </c>
       <c r="E131" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>38</v>
@@ -5606,9 +6669,17 @@
       <c r="K131" t="s">
         <v>60</v>
       </c>
-      <c r="L131" s="2"/>
-    </row>
-    <row r="132" spans="1:12" ht="15.7">
+      <c r="L131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N131">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15.75">
       <c r="A132" s="2" t="s">
         <v>12</v>
       </c>
@@ -5623,7 +6694,7 @@
         <v>P18EP01M02</v>
       </c>
       <c r="E132" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>38</v>
@@ -5638,14 +6709,22 @@
         <v>0.1</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K132" t="s">
-        <v>90</v>
-      </c>
-      <c r="L132" s="2"/>
-    </row>
-    <row r="133" spans="1:12" ht="15.7">
+        <v>88</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N132">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75">
       <c r="A133" s="2" t="s">
         <v>14</v>
       </c>
@@ -5660,7 +6739,7 @@
         <v>P19DW01M02</v>
       </c>
       <c r="E133" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>3</v>
@@ -5680,9 +6759,17 @@
       <c r="K133" t="s">
         <v>53</v>
       </c>
-      <c r="L133" s="2"/>
-    </row>
-    <row r="134" spans="1:12" ht="15.7">
+      <c r="L133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N133">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="15.75">
       <c r="A134" s="2" t="s">
         <v>14</v>
       </c>
@@ -5697,7 +6784,7 @@
         <v>P19DW01M01</v>
       </c>
       <c r="E134" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>3</v>
@@ -5717,9 +6804,17 @@
       <c r="K134" t="s">
         <v>60</v>
       </c>
-      <c r="L134" s="2"/>
-    </row>
-    <row r="135" spans="1:12" ht="15.7">
+      <c r="L134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N134">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="15.75">
       <c r="A135" s="2" t="s">
         <v>14</v>
       </c>
@@ -5734,7 +6829,7 @@
         <v>P19DW01M05</v>
       </c>
       <c r="E135" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>3</v>
@@ -5749,14 +6844,22 @@
         <v>0.1</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K135" t="s">
         <v>63</v>
       </c>
-      <c r="L135" s="2"/>
-    </row>
-    <row r="136" spans="1:12" ht="15.7">
+      <c r="L135" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N135">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="15.75">
       <c r="A136" s="5" t="s">
         <v>14</v>
       </c>
@@ -5771,7 +6874,7 @@
         <v>P19DW01M03</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>3</v>
@@ -5786,14 +6889,22 @@
         <v>0.1</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K136" t="s">
-        <v>100</v>
-      </c>
-      <c r="L136" s="5"/>
-    </row>
-    <row r="137" spans="1:12" ht="15.7">
+        <v>98</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N136">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="2" t="s">
         <v>14</v>
       </c>
@@ -5808,7 +6919,7 @@
         <v>P19EP01M01</v>
       </c>
       <c r="E137" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>38</v>
@@ -5828,9 +6939,17 @@
       <c r="K137" t="s">
         <v>60</v>
       </c>
-      <c r="L137" s="2"/>
-    </row>
-    <row r="138" spans="1:12" ht="15.7">
+      <c r="L137" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N137">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="15.75">
       <c r="A138" s="2" t="s">
         <v>14</v>
       </c>
@@ -5838,14 +6957,14 @@
         <v>42</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D138" s="4" t="str">
         <f t="shared" si="2"/>
         <v>P19SL01M08</v>
       </c>
       <c r="E138" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>3</v>
@@ -5860,14 +6979,22 @@
         <v>0.1</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K138" t="s">
-        <v>80</v>
-      </c>
-      <c r="L138" s="2"/>
-    </row>
-    <row r="139" spans="1:12" ht="15.7">
+        <v>79</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N138">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="15.75">
       <c r="A139" s="2" t="s">
         <v>14</v>
       </c>
@@ -5875,14 +7002,14 @@
         <v>42</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D139" s="4" t="str">
         <f t="shared" si="2"/>
         <v>P19SL01M07</v>
       </c>
       <c r="E139" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>3</v>
@@ -5902,9 +7029,17 @@
       <c r="K139" t="s">
         <v>57</v>
       </c>
-      <c r="L139" s="2"/>
-    </row>
-    <row r="140" spans="1:12" ht="15.7">
+      <c r="L139" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N139">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="15.75">
       <c r="A140" s="2" t="s">
         <v>14</v>
       </c>
@@ -5919,7 +7054,7 @@
         <v>P19SL01M04</v>
       </c>
       <c r="E140" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>3</v>
@@ -5934,14 +7069,22 @@
         <v>3</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K140" t="s">
         <v>53</v>
       </c>
-      <c r="L140" s="2"/>
-    </row>
-    <row r="141" spans="1:12" ht="15.7">
+      <c r="L140" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N140">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="15.75">
       <c r="A141" s="5" t="s">
         <v>14</v>
       </c>
@@ -5949,14 +7092,14 @@
         <v>42</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D141" s="10" t="str">
         <f t="shared" si="2"/>
         <v>P19SL01M0x</v>
       </c>
       <c r="E141" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>3</v>
@@ -5971,14 +7114,22 @@
         <v>0.1</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K141" t="s">
-        <v>90</v>
-      </c>
-      <c r="L141" s="5"/>
-    </row>
-    <row r="142" spans="1:12" ht="15.7">
+        <v>88</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N141">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="15.75">
       <c r="A142" s="2" t="s">
         <v>14</v>
       </c>
@@ -5993,7 +7144,7 @@
         <v>P19SL01M01</v>
       </c>
       <c r="E142" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>3</v>
@@ -6008,14 +7159,22 @@
         <v>3</v>
       </c>
       <c r="J142" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K142" t="s">
         <v>79</v>
       </c>
-      <c r="K142" t="s">
-        <v>80</v>
-      </c>
-      <c r="L142" s="2"/>
-    </row>
-    <row r="143" spans="1:12" ht="15.7">
+      <c r="L142" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N142">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="15.75">
       <c r="A143" s="2" t="s">
         <v>14</v>
       </c>
@@ -6030,7 +7189,7 @@
         <v>P19SL01M02</v>
       </c>
       <c r="E143" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>3</v>
@@ -6045,14 +7204,22 @@
         <v>15</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K143" t="s">
         <v>63</v>
       </c>
-      <c r="L143" s="2"/>
-    </row>
-    <row r="144" spans="1:12" ht="15.7">
+      <c r="L143" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N143">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="15.75">
       <c r="A144" s="2" t="s">
         <v>14</v>
       </c>
@@ -6067,7 +7234,7 @@
         <v>P19SL01M03</v>
       </c>
       <c r="E144" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>3</v>
@@ -6082,14 +7249,22 @@
         <v>15</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K144" t="s">
-        <v>100</v>
-      </c>
-      <c r="L144" s="2"/>
-    </row>
-    <row r="145" spans="1:12" ht="15.7">
+        <v>98</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N144">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="15.75">
       <c r="A145" s="2" t="s">
         <v>14</v>
       </c>
@@ -6104,7 +7279,7 @@
         <v>P19SL01M06</v>
       </c>
       <c r="E145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>3</v>
@@ -6119,14 +7294,22 @@
         <v>3</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K145" t="s">
         <v>53</v>
       </c>
-      <c r="L145" s="2"/>
-    </row>
-    <row r="146" spans="1:12" ht="15.7">
+      <c r="L145" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N145">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="15.75">
       <c r="A146" s="2" t="s">
         <v>15</v>
       </c>
@@ -6141,7 +7324,7 @@
         <v>P20DW01M02</v>
       </c>
       <c r="E146" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>3</v>
@@ -6161,9 +7344,17 @@
       <c r="K146" t="s">
         <v>57</v>
       </c>
-      <c r="L146" s="2"/>
-    </row>
-    <row r="147" spans="1:12" ht="15.7">
+      <c r="L146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N146">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="15.75">
       <c r="A147" s="5" t="s">
         <v>15</v>
       </c>
@@ -6178,7 +7369,7 @@
         <v>P20DW01M05</v>
       </c>
       <c r="E147" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>3</v>
@@ -6193,14 +7384,22 @@
         <v>0.1</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K147" t="s">
-        <v>105</v>
-      </c>
-      <c r="L147" s="5"/>
-    </row>
-    <row r="148" spans="1:12" ht="15.7">
+        <v>103</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N147">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="15.75">
       <c r="A148" s="2" t="s">
         <v>15</v>
       </c>
@@ -6208,14 +7407,14 @@
         <v>41</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D148" s="4" t="str">
         <f t="shared" si="2"/>
         <v>P20DW01M?</v>
       </c>
       <c r="E148" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>3</v>
@@ -6230,14 +7429,22 @@
         <v>0.5</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K148" t="s">
         <v>53</v>
       </c>
-      <c r="L148" s="2"/>
-    </row>
-    <row r="149" spans="1:12" ht="15.7">
+      <c r="L148" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N148">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="15.75">
       <c r="A149" s="2" t="s">
         <v>15</v>
       </c>
@@ -6252,7 +7459,7 @@
         <v>P20DW01M04</v>
       </c>
       <c r="E149" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>3</v>
@@ -6267,14 +7474,22 @@
         <v>0.5</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K149" t="s">
         <v>53</v>
       </c>
-      <c r="L149" s="2"/>
-    </row>
-    <row r="150" spans="1:12" ht="15.7">
+      <c r="L149" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N149">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="15.75">
       <c r="A150" s="2" t="s">
         <v>15</v>
       </c>
@@ -6289,7 +7504,7 @@
         <v>P20DW01M01</v>
       </c>
       <c r="E150" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>3</v>
@@ -6309,9 +7524,17 @@
       <c r="K150" t="s">
         <v>60</v>
       </c>
-      <c r="L150" s="2"/>
-    </row>
-    <row r="151" spans="1:12" ht="15.7">
+      <c r="L150" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N150">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="15.75">
       <c r="A151" s="2" t="s">
         <v>15</v>
       </c>
@@ -6326,7 +7549,7 @@
         <v>P20DW01M03</v>
       </c>
       <c r="E151" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>3</v>
@@ -6346,9 +7569,17 @@
       <c r="K151" t="s">
         <v>57</v>
       </c>
-      <c r="L151" s="2"/>
-    </row>
-    <row r="152" spans="1:12" ht="15.7">
+      <c r="L151" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N151">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="15.75">
       <c r="A152" s="2" t="s">
         <v>15</v>
       </c>
@@ -6363,7 +7594,7 @@
         <v>P20EP01M01</v>
       </c>
       <c r="E152" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>33</v>
@@ -6383,9 +7614,17 @@
       <c r="K152" t="s">
         <v>60</v>
       </c>
-      <c r="L152" s="2"/>
-    </row>
-    <row r="153" spans="1:12" ht="15.7">
+      <c r="L152" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N152">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="15.75">
       <c r="A153" s="2" t="s">
         <v>15</v>
       </c>
@@ -6400,7 +7639,7 @@
         <v>P20SL01M05</v>
       </c>
       <c r="E153" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>3</v>
@@ -6415,14 +7654,22 @@
         <v>0.1</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K153" t="s">
         <v>53</v>
       </c>
-      <c r="L153" s="2"/>
-    </row>
-    <row r="154" spans="1:12" ht="15.7">
+      <c r="L153" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N153">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="15.75">
       <c r="A154" s="5" t="s">
         <v>15</v>
       </c>
@@ -6437,7 +7684,7 @@
         <v>P20SL01M02</v>
       </c>
       <c r="E154" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>3</v>
@@ -6452,14 +7699,22 @@
         <v>15</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K154" t="s">
         <v>53</v>
       </c>
-      <c r="L154" s="5"/>
-    </row>
-    <row r="155" spans="1:12" ht="15.7">
+      <c r="L154" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N154">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="15.75">
       <c r="A155" s="5" t="s">
         <v>15</v>
       </c>
@@ -6474,7 +7729,7 @@
         <v>P20SL01M06</v>
       </c>
       <c r="E155" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>3</v>
@@ -6489,14 +7744,22 @@
         <v>0.1</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K155" t="s">
-        <v>90</v>
-      </c>
-      <c r="L155" s="5"/>
-    </row>
-    <row r="156" spans="1:12" ht="15.7">
+        <v>88</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N155">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="15.75">
       <c r="A156" s="2" t="s">
         <v>15</v>
       </c>
@@ -6511,7 +7774,7 @@
         <v>P20SL01M03</v>
       </c>
       <c r="E156" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>3</v>
@@ -6526,14 +7789,22 @@
         <v>0.5</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K156" t="s">
         <v>63</v>
       </c>
-      <c r="L156" s="2"/>
-    </row>
-    <row r="157" spans="1:12" ht="15.7">
+      <c r="L156" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N156">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="15.75">
       <c r="A157" s="2" t="s">
         <v>15</v>
       </c>
@@ -6548,7 +7819,7 @@
         <v>P20SL01M04</v>
       </c>
       <c r="E157" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>3</v>
@@ -6563,14 +7834,22 @@
         <v>0.1</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K157" t="s">
-        <v>100</v>
-      </c>
-      <c r="L157" s="2"/>
-    </row>
-    <row r="158" spans="1:12" ht="15.7">
+        <v>98</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N157">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="15.75">
       <c r="A158" s="2" t="s">
         <v>15</v>
       </c>
@@ -6585,7 +7864,7 @@
         <v>P20SL01M01</v>
       </c>
       <c r="E158" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>3</v>
@@ -6600,14 +7879,22 @@
         <v>15</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K158" t="s">
         <v>53</v>
       </c>
-      <c r="L158" s="2"/>
-    </row>
-    <row r="159" spans="1:12" ht="15.7">
+      <c r="L158" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N158">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="15.75">
       <c r="A159" s="2" t="s">
         <v>16</v>
       </c>
@@ -6622,7 +7909,7 @@
         <v>P21DW01M06</v>
       </c>
       <c r="E159" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>3</v>
@@ -6637,14 +7924,22 @@
         <v>0.5</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K159" t="s">
-        <v>109</v>
-      </c>
-      <c r="L159" s="2"/>
-    </row>
-    <row r="160" spans="1:12" ht="15.7">
+        <v>107</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N159">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="15.75">
       <c r="A160" s="2" t="s">
         <v>16</v>
       </c>
@@ -6659,7 +7954,7 @@
         <v>P21DW01M02</v>
       </c>
       <c r="E160" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>3</v>
@@ -6679,9 +7974,17 @@
       <c r="K160" t="s">
         <v>57</v>
       </c>
-      <c r="L160" s="2"/>
-    </row>
-    <row r="161" spans="1:12" ht="15.7">
+      <c r="L160" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N160">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="15.75">
       <c r="A161" s="2" t="s">
         <v>16</v>
       </c>
@@ -6696,7 +7999,7 @@
         <v>P21DW01M04</v>
       </c>
       <c r="E161" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>3</v>
@@ -6716,9 +8019,17 @@
       <c r="K161" t="s">
         <v>60</v>
       </c>
-      <c r="L161" s="2"/>
-    </row>
-    <row r="162" spans="1:12" ht="15.7">
+      <c r="L161" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N161">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="15.75">
       <c r="A162" s="2" t="s">
         <v>16</v>
       </c>
@@ -6733,7 +8044,7 @@
         <v>P21DW01M03</v>
       </c>
       <c r="E162" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>3</v>
@@ -6753,9 +8064,17 @@
       <c r="K162" t="s">
         <v>72</v>
       </c>
-      <c r="L162" s="2"/>
-    </row>
-    <row r="163" spans="1:12" ht="15.7">
+      <c r="L162" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N162">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="15.75">
       <c r="A163" s="2" t="s">
         <v>16</v>
       </c>
@@ -6770,7 +8089,7 @@
         <v>P21DW01M01</v>
       </c>
       <c r="E163" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>3</v>
@@ -6785,14 +8104,22 @@
         <v>0.1</v>
       </c>
       <c r="J163" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K163" t="s">
         <v>79</v>
       </c>
-      <c r="K163" t="s">
-        <v>80</v>
-      </c>
-      <c r="L163" s="2"/>
-    </row>
-    <row r="164" spans="1:12" ht="15.7">
+      <c r="L163" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N163">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="15.75">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -6807,7 +8134,7 @@
         <v>P21DW01M05</v>
       </c>
       <c r="E164" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>3</v>
@@ -6822,14 +8149,22 @@
         <v>0.1</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K164" t="s">
         <v>53</v>
       </c>
-      <c r="L164" s="2"/>
-    </row>
-    <row r="165" spans="1:12" ht="15.7">
+      <c r="L164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N164">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15.75">
       <c r="A165" s="2" t="s">
         <v>16</v>
       </c>
@@ -6844,7 +8179,7 @@
         <v>P21EP01M02</v>
       </c>
       <c r="E165" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>40</v>
@@ -6859,14 +8194,22 @@
         <v>0.5</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K165" t="s">
-        <v>109</v>
-      </c>
-      <c r="L165" s="2"/>
-    </row>
-    <row r="166" spans="1:12" ht="15.7">
+        <v>107</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N165">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="15.75">
       <c r="A166" s="2" t="s">
         <v>16</v>
       </c>
@@ -6881,7 +8224,7 @@
         <v>P21EP01M01</v>
       </c>
       <c r="E166" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>40</v>
@@ -6901,9 +8244,17 @@
       <c r="K166" t="s">
         <v>60</v>
       </c>
-      <c r="L166" s="2"/>
-    </row>
-    <row r="167" spans="1:12" ht="15.7">
+      <c r="L166" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N166">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="15.75">
       <c r="A167" s="2" t="s">
         <v>16</v>
       </c>
@@ -6918,7 +8269,7 @@
         <v>P21SL01M03</v>
       </c>
       <c r="E167" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>3</v>
@@ -6938,9 +8289,17 @@
       <c r="K167" t="s">
         <v>57</v>
       </c>
-      <c r="L167" s="2"/>
-    </row>
-    <row r="168" spans="1:12" ht="15.7">
+      <c r="L167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N167">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="15.75">
       <c r="A168" s="2" t="s">
         <v>16</v>
       </c>
@@ -6955,7 +8314,7 @@
         <v>P21SL01M01</v>
       </c>
       <c r="E168" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>3</v>
@@ -6970,14 +8329,22 @@
         <v>15</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K168" t="s">
-        <v>100</v>
-      </c>
-      <c r="L168" s="2"/>
-    </row>
-    <row r="169" spans="1:12" ht="15.7">
+        <v>98</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N168">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="15.75">
       <c r="A169" s="2" t="s">
         <v>16</v>
       </c>
@@ -6985,14 +8352,14 @@
         <v>42</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D169" s="4" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">P21SL01M02 </v>
       </c>
       <c r="E169" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>3</v>
@@ -7007,14 +8374,22 @@
         <v>15</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K169" t="s">
         <v>53</v>
       </c>
-      <c r="L169" s="2"/>
-    </row>
-    <row r="170" spans="1:12" ht="15.7">
+      <c r="L169" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N169">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15.75">
       <c r="A170" s="2" t="s">
         <v>17</v>
       </c>
@@ -7029,7 +8404,7 @@
         <v>P22DW01M02</v>
       </c>
       <c r="E170" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>3</v>
@@ -7049,9 +8424,17 @@
       <c r="K170" t="s">
         <v>53</v>
       </c>
-      <c r="L170" s="2"/>
-    </row>
-    <row r="171" spans="1:12" ht="15.7">
+      <c r="L170" t="s">
+        <v>122</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="15.75">
       <c r="A171" s="2" t="s">
         <v>17</v>
       </c>
@@ -7066,7 +8449,7 @@
         <v>P22DW01M01</v>
       </c>
       <c r="E171" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>3</v>
@@ -7086,9 +8469,17 @@
       <c r="K171" t="s">
         <v>60</v>
       </c>
-      <c r="L171" s="2"/>
-    </row>
-    <row r="172" spans="1:12" ht="15.7">
+      <c r="L171" t="s">
+        <v>122</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N171">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="15.75">
       <c r="A172" s="2" t="s">
         <v>17</v>
       </c>
@@ -7103,7 +8494,7 @@
         <v>P22EP01M02</v>
       </c>
       <c r="E172" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>36</v>
@@ -7123,9 +8514,17 @@
       <c r="K172" t="s">
         <v>53</v>
       </c>
-      <c r="L172" s="2"/>
-    </row>
-    <row r="173" spans="1:12" ht="15.7">
+      <c r="L172" t="s">
+        <v>122</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N172">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15.75">
       <c r="A173" s="2" t="s">
         <v>17</v>
       </c>
@@ -7140,7 +8539,7 @@
         <v>P22EP01M05</v>
       </c>
       <c r="E173" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>36</v>
@@ -7160,9 +8559,17 @@
       <c r="K173" t="s">
         <v>57</v>
       </c>
-      <c r="L173" s="2"/>
-    </row>
-    <row r="174" spans="1:12" ht="15.7">
+      <c r="L173" t="s">
+        <v>122</v>
+      </c>
+      <c r="M173" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N173">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15.75">
       <c r="A174" s="2" t="s">
         <v>17</v>
       </c>
@@ -7177,7 +8584,7 @@
         <v>P22EP01M01</v>
       </c>
       <c r="E174" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>36</v>
@@ -7197,9 +8604,17 @@
       <c r="K174" t="s">
         <v>60</v>
       </c>
-      <c r="L174" s="2"/>
-    </row>
-    <row r="175" spans="1:12" ht="15.7">
+      <c r="L174" t="s">
+        <v>122</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N174">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="15.75">
       <c r="A175" s="5" t="s">
         <v>17</v>
       </c>
@@ -7207,14 +8622,14 @@
         <v>30</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D175" s="4" t="str">
         <f t="shared" si="2"/>
         <v>P22EP01M0?</v>
       </c>
       <c r="E175" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>36</v>
@@ -7234,9 +8649,17 @@
       <c r="K175" t="s">
         <v>63</v>
       </c>
-      <c r="L175" s="5"/>
-    </row>
-    <row r="176" spans="1:12" ht="15.7">
+      <c r="L175" t="s">
+        <v>122</v>
+      </c>
+      <c r="M175" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N175">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="15.75">
       <c r="A176" s="2" t="s">
         <v>17</v>
       </c>
@@ -7251,7 +8674,7 @@
         <v>P22EP01M03</v>
       </c>
       <c r="E176" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>36</v>
@@ -7271,9 +8694,17 @@
       <c r="K176" t="s">
         <v>57</v>
       </c>
-      <c r="L176" s="2"/>
-    </row>
-    <row r="177" spans="1:12" ht="15.7">
+      <c r="L176" t="s">
+        <v>122</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N176">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="15.75">
       <c r="A177" s="2" t="s">
         <v>17</v>
       </c>
@@ -7288,7 +8719,7 @@
         <v>P22EP02M01</v>
       </c>
       <c r="E177" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>32</v>
@@ -7308,9 +8739,17 @@
       <c r="K177" t="s">
         <v>60</v>
       </c>
-      <c r="L177" s="2"/>
-    </row>
-    <row r="178" spans="1:12" ht="15.7">
+      <c r="L177" t="s">
+        <v>122</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N177">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15.75">
       <c r="A178" s="2" t="s">
         <v>17</v>
       </c>
@@ -7325,7 +8764,7 @@
         <v>P22EP02M01</v>
       </c>
       <c r="E178" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>32</v>
@@ -7345,9 +8784,17 @@
       <c r="K178" t="s">
         <v>60</v>
       </c>
-      <c r="L178" s="2"/>
-    </row>
-    <row r="179" spans="1:12" ht="15.7">
+      <c r="L178" t="s">
+        <v>122</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N178">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="15.75">
       <c r="A179" s="2" t="s">
         <v>17</v>
       </c>
@@ -7362,7 +8809,7 @@
         <v>P22EP02M02</v>
       </c>
       <c r="E179" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>32</v>
@@ -7382,9 +8829,17 @@
       <c r="K179" t="s">
         <v>57</v>
       </c>
-      <c r="L179" s="2"/>
-    </row>
-    <row r="180" spans="1:12" ht="15.7">
+      <c r="L179" t="s">
+        <v>122</v>
+      </c>
+      <c r="M179" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N179">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15.75">
       <c r="A180" s="2" t="s">
         <v>17</v>
       </c>
@@ -7399,7 +8854,7 @@
         <v>P22EP02M02</v>
       </c>
       <c r="E180" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>32</v>
@@ -7419,9 +8874,17 @@
       <c r="K180" t="s">
         <v>72</v>
       </c>
-      <c r="L180" s="2"/>
-    </row>
-    <row r="181" spans="1:12" ht="15.7">
+      <c r="L180" t="s">
+        <v>122</v>
+      </c>
+      <c r="M180" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N180">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="15.75">
       <c r="A181" s="2" t="s">
         <v>17</v>
       </c>
@@ -7436,7 +8899,7 @@
         <v>P22EP02M03</v>
       </c>
       <c r="E181" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>32</v>
@@ -7456,9 +8919,17 @@
       <c r="K181" t="s">
         <v>72</v>
       </c>
-      <c r="L181" s="2"/>
-    </row>
-    <row r="182" spans="1:12" ht="15.7">
+      <c r="L181" t="s">
+        <v>122</v>
+      </c>
+      <c r="M181" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N181">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="15.75">
       <c r="A182" s="2" t="s">
         <v>17</v>
       </c>
@@ -7473,7 +8944,7 @@
         <v>P22SL01M03</v>
       </c>
       <c r="E182" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>3</v>
@@ -7488,14 +8959,22 @@
         <v>0.5</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K182" t="s">
-        <v>80</v>
-      </c>
-      <c r="L182" s="2"/>
-    </row>
-    <row r="183" spans="1:12" ht="15.7">
+        <v>79</v>
+      </c>
+      <c r="L182" t="s">
+        <v>122</v>
+      </c>
+      <c r="M182" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N182">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="15.75">
       <c r="A183" s="2" t="s">
         <v>17</v>
       </c>
@@ -7510,7 +8989,7 @@
         <v>P22SL01M01</v>
       </c>
       <c r="E183" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>3</v>
@@ -7530,9 +9009,17 @@
       <c r="K183" t="s">
         <v>53</v>
       </c>
-      <c r="L183" s="2"/>
-    </row>
-    <row r="184" spans="1:12" ht="15.7">
+      <c r="L183" t="s">
+        <v>122</v>
+      </c>
+      <c r="M183" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N183">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="15.75">
       <c r="A184" s="2" t="s">
         <v>17</v>
       </c>
@@ -7547,7 +9034,7 @@
         <v>P22SL01M04</v>
       </c>
       <c r="E184" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>3</v>
@@ -7567,9 +9054,17 @@
       <c r="K184" t="s">
         <v>60</v>
       </c>
-      <c r="L184" s="2"/>
-    </row>
-    <row r="185" spans="1:12" ht="15.7">
+      <c r="L184" t="s">
+        <v>122</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N184">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="15.75">
       <c r="A185" s="2" t="s">
         <v>17</v>
       </c>
@@ -7584,7 +9079,7 @@
         <v>P22SL01M02</v>
       </c>
       <c r="E185" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>3</v>
@@ -7599,14 +9094,22 @@
         <v>0.5</v>
       </c>
       <c r="J185" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K185" t="s">
         <v>79</v>
       </c>
-      <c r="K185" t="s">
-        <v>80</v>
-      </c>
-      <c r="L185" s="2"/>
-    </row>
-    <row r="186" spans="1:12" ht="15.7">
+      <c r="L185" t="s">
+        <v>122</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N185">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="15.75">
       <c r="A186" s="2" t="s">
         <v>18</v>
       </c>
@@ -7641,9 +9144,17 @@
       <c r="K186" t="s">
         <v>53</v>
       </c>
-      <c r="L186" s="2"/>
-    </row>
-    <row r="187" spans="1:12" ht="15.7">
+      <c r="L186" t="s">
+        <v>122</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N186">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="15.75">
       <c r="A187" s="2" t="s">
         <v>18</v>
       </c>
@@ -7678,9 +9189,17 @@
       <c r="K187" t="s">
         <v>60</v>
       </c>
-      <c r="L187" s="2"/>
-    </row>
-    <row r="188" spans="1:12" ht="15.7">
+      <c r="L187" t="s">
+        <v>122</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N187">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="15.75">
       <c r="A188" s="2" t="s">
         <v>18</v>
       </c>
@@ -7710,14 +9229,22 @@
         <v>0.1</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K188" t="s">
-        <v>86</v>
-      </c>
-      <c r="L188" s="2"/>
-    </row>
-    <row r="189" spans="1:12" ht="15.7">
+        <v>84</v>
+      </c>
+      <c r="L188" t="s">
+        <v>122</v>
+      </c>
+      <c r="M188" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N188">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="15.75">
       <c r="A189" s="2" t="s">
         <v>18</v>
       </c>
@@ -7752,9 +9279,17 @@
       <c r="K189" t="s">
         <v>60</v>
       </c>
-      <c r="L189" s="2"/>
-    </row>
-    <row r="190" spans="1:12" ht="15.7">
+      <c r="L189" t="s">
+        <v>122</v>
+      </c>
+      <c r="M189" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N189">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="15.75">
       <c r="A190" s="2" t="s">
         <v>18</v>
       </c>
@@ -7789,9 +9324,17 @@
       <c r="K190" t="s">
         <v>60</v>
       </c>
-      <c r="L190" s="2"/>
-    </row>
-    <row r="191" spans="1:12" ht="15.7">
+      <c r="L190" t="s">
+        <v>122</v>
+      </c>
+      <c r="M190" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N190">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="15.75">
       <c r="A191" s="2" t="s">
         <v>18</v>
       </c>
@@ -7826,9 +9369,17 @@
       <c r="K191" t="s">
         <v>72</v>
       </c>
-      <c r="L191" s="2"/>
-    </row>
-    <row r="192" spans="1:12" ht="15.7">
+      <c r="L191" t="s">
+        <v>122</v>
+      </c>
+      <c r="M191" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N191">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="15.75">
       <c r="A192" s="2" t="s">
         <v>18</v>
       </c>
@@ -7863,9 +9414,17 @@
       <c r="K192" t="s">
         <v>72</v>
       </c>
-      <c r="L192" s="2"/>
-    </row>
-    <row r="193" spans="1:12" ht="15.7">
+      <c r="L192" t="s">
+        <v>122</v>
+      </c>
+      <c r="M192" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N192">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15.75">
       <c r="A193" s="2" t="s">
         <v>18</v>
       </c>
@@ -7895,14 +9454,22 @@
         <v>0.1</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K193" t="s">
-        <v>114</v>
-      </c>
-      <c r="L193" s="2"/>
-    </row>
-    <row r="194" spans="1:12" ht="15.7">
+        <v>112</v>
+      </c>
+      <c r="L193" t="s">
+        <v>122</v>
+      </c>
+      <c r="M193" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N193">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15.75">
       <c r="A194" s="2" t="s">
         <v>18</v>
       </c>
@@ -7932,14 +9499,22 @@
         <v>0.1</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K194" t="s">
-        <v>114</v>
-      </c>
-      <c r="L194" s="2"/>
-    </row>
-    <row r="195" spans="1:12" ht="15.7">
+        <v>112</v>
+      </c>
+      <c r="L194" t="s">
+        <v>122</v>
+      </c>
+      <c r="M194" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N194">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15.75">
       <c r="A195" s="2" t="s">
         <v>18</v>
       </c>
@@ -7974,9 +9549,17 @@
       <c r="K195" t="s">
         <v>53</v>
       </c>
-      <c r="L195" s="2"/>
-    </row>
-    <row r="196" spans="1:12" ht="15.7">
+      <c r="L195" t="s">
+        <v>122</v>
+      </c>
+      <c r="M195" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N195">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="15.75">
       <c r="A196" s="2" t="s">
         <v>18</v>
       </c>
@@ -8011,9 +9594,17 @@
       <c r="K196" t="s">
         <v>60</v>
       </c>
-      <c r="L196" s="2"/>
-    </row>
-    <row r="197" spans="1:12" ht="15.7">
+      <c r="L196" t="s">
+        <v>122</v>
+      </c>
+      <c r="M196" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N196">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="15.75">
       <c r="A197" s="2" t="s">
         <v>18</v>
       </c>
@@ -8048,9 +9639,17 @@
       <c r="K197" t="s">
         <v>60</v>
       </c>
-      <c r="L197" s="2"/>
-    </row>
-    <row r="198" spans="1:12" ht="15.7">
+      <c r="L197" t="s">
+        <v>122</v>
+      </c>
+      <c r="M197" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N197">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15.75">
       <c r="A198" s="2" t="s">
         <v>18</v>
       </c>
@@ -8085,9 +9684,17 @@
       <c r="K198" t="s">
         <v>69</v>
       </c>
-      <c r="L198" s="2"/>
-    </row>
-    <row r="199" spans="1:12" ht="15.7">
+      <c r="L198" t="s">
+        <v>122</v>
+      </c>
+      <c r="M198" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N198">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="15.75">
       <c r="A199" s="2" t="s">
         <v>18</v>
       </c>
@@ -8117,14 +9724,22 @@
         <v>0.5</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K199" t="s">
-        <v>80</v>
-      </c>
-      <c r="L199" s="2"/>
-    </row>
-    <row r="200" spans="1:12" ht="15.7">
+        <v>79</v>
+      </c>
+      <c r="L199" t="s">
+        <v>122</v>
+      </c>
+      <c r="M199" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N199">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15.75">
       <c r="A200" s="2" t="s">
         <v>18</v>
       </c>
@@ -8159,9 +9774,17 @@
       <c r="K200" t="s">
         <v>53</v>
       </c>
-      <c r="L200" s="2"/>
-    </row>
-    <row r="201" spans="1:12" ht="15.7">
+      <c r="L200" t="s">
+        <v>122</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N200">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15.75">
       <c r="A201" s="2" t="s">
         <v>18</v>
       </c>
@@ -8191,14 +9814,22 @@
         <v>0.1</v>
       </c>
       <c r="J201" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K201" t="s">
         <v>79</v>
       </c>
-      <c r="K201" t="s">
-        <v>80</v>
-      </c>
-      <c r="L201" s="2"/>
-    </row>
-    <row r="202" spans="1:12" ht="15.7">
+      <c r="L201" t="s">
+        <v>122</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N201">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15.75">
       <c r="A202" s="2" t="s">
         <v>19</v>
       </c>
@@ -8233,9 +9864,17 @@
       <c r="K202" t="s">
         <v>53</v>
       </c>
-      <c r="L202" s="2"/>
-    </row>
-    <row r="203" spans="1:12" ht="15.7">
+      <c r="L202" t="s">
+        <v>122</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N202">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="15.75">
       <c r="A203" s="2" t="s">
         <v>19</v>
       </c>
@@ -8270,9 +9909,17 @@
       <c r="K203" t="s">
         <v>57</v>
       </c>
-      <c r="L203" s="2"/>
-    </row>
-    <row r="204" spans="1:12" ht="15.7">
+      <c r="L203" t="s">
+        <v>122</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N203">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15.75">
       <c r="A204" s="2" t="s">
         <v>19</v>
       </c>
@@ -8307,9 +9954,17 @@
       <c r="K204" t="s">
         <v>60</v>
       </c>
-      <c r="L204" s="2"/>
-    </row>
-    <row r="205" spans="1:12" ht="15.7">
+      <c r="L204" t="s">
+        <v>122</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N204">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15.75">
       <c r="A205" s="2" t="s">
         <v>19</v>
       </c>
@@ -8344,9 +9999,17 @@
       <c r="K205" t="s">
         <v>57</v>
       </c>
-      <c r="L205" s="2"/>
-    </row>
-    <row r="206" spans="1:12" ht="15.7">
+      <c r="L205" t="s">
+        <v>122</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N205">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="15.75">
       <c r="A206" s="2" t="s">
         <v>19</v>
       </c>
@@ -8381,9 +10044,17 @@
       <c r="K206" t="s">
         <v>60</v>
       </c>
-      <c r="L206" s="2"/>
-    </row>
-    <row r="207" spans="1:12" ht="15.7">
+      <c r="L206" t="s">
+        <v>122</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N206">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15.75">
       <c r="A207" s="2" t="s">
         <v>19</v>
       </c>
@@ -8418,9 +10089,17 @@
       <c r="K207" t="s">
         <v>57</v>
       </c>
-      <c r="L207" s="2"/>
-    </row>
-    <row r="208" spans="1:12" ht="15.7">
+      <c r="L207" t="s">
+        <v>122</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N207">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15.75">
       <c r="A208" s="2" t="s">
         <v>19</v>
       </c>
@@ -8455,9 +10134,17 @@
       <c r="K208" t="s">
         <v>72</v>
       </c>
-      <c r="L208" s="2"/>
-    </row>
-    <row r="209" spans="1:12" ht="15.7">
+      <c r="L208" t="s">
+        <v>122</v>
+      </c>
+      <c r="M208" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N208">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="15.75">
       <c r="A209" s="2" t="s">
         <v>19</v>
       </c>
@@ -8492,9 +10179,17 @@
       <c r="K209" t="s">
         <v>53</v>
       </c>
-      <c r="L209" s="2"/>
-    </row>
-    <row r="210" spans="1:12" ht="15.7">
+      <c r="L209" t="s">
+        <v>122</v>
+      </c>
+      <c r="M209" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N209">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="15.75">
       <c r="A210" s="2" t="s">
         <v>19</v>
       </c>
@@ -8529,9 +10224,17 @@
       <c r="K210" t="s">
         <v>60</v>
       </c>
-      <c r="L210" s="2"/>
-    </row>
-    <row r="211" spans="1:12" ht="15.7">
+      <c r="L210" t="s">
+        <v>122</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N210">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="15.75">
       <c r="A211" s="2" t="s">
         <v>19</v>
       </c>
@@ -8539,7 +10242,7 @@
         <v>28</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D211" s="4" t="str">
         <f t="shared" si="3"/>
@@ -8566,9 +10269,17 @@
       <c r="K211" t="s">
         <v>60</v>
       </c>
-      <c r="L211" s="2"/>
-    </row>
-    <row r="212" spans="1:12" ht="15.7">
+      <c r="L211" t="s">
+        <v>122</v>
+      </c>
+      <c r="M211" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N211">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="15.75">
       <c r="A212" s="2" t="s">
         <v>19</v>
       </c>
@@ -8598,14 +10309,22 @@
         <v>0.1</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K212" t="s">
-        <v>80</v>
-      </c>
-      <c r="L212" s="2"/>
-    </row>
-    <row r="213" spans="1:12" ht="15.7">
+        <v>79</v>
+      </c>
+      <c r="L212" t="s">
+        <v>122</v>
+      </c>
+      <c r="M212" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N212">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="15.75">
       <c r="A213" s="2" t="s">
         <v>19</v>
       </c>
@@ -8640,9 +10359,17 @@
       <c r="K213" t="s">
         <v>53</v>
       </c>
-      <c r="L213" s="2"/>
-    </row>
-    <row r="214" spans="1:12" ht="15.7">
+      <c r="L213" t="s">
+        <v>122</v>
+      </c>
+      <c r="M213" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N213">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="15.75">
       <c r="A214" s="2" t="s">
         <v>19</v>
       </c>
@@ -8672,14 +10399,22 @@
         <v>3</v>
       </c>
       <c r="J214" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K214" t="s">
         <v>79</v>
       </c>
-      <c r="K214" t="s">
-        <v>80</v>
-      </c>
-      <c r="L214" s="2"/>
-    </row>
-    <row r="215" spans="1:12" ht="15.7">
+      <c r="L214" t="s">
+        <v>122</v>
+      </c>
+      <c r="M214" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N214">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="15.75">
       <c r="A215" s="2" t="s">
         <v>20</v>
       </c>
@@ -8694,7 +10429,7 @@
         <v>P25DW01M02</v>
       </c>
       <c r="E215" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>3</v>
@@ -8714,9 +10449,17 @@
       <c r="K215" t="s">
         <v>53</v>
       </c>
-      <c r="L215" s="2"/>
-    </row>
-    <row r="216" spans="1:12" ht="15.7">
+      <c r="L215" t="s">
+        <v>127</v>
+      </c>
+      <c r="M215" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="15.75">
       <c r="A216" s="2" t="s">
         <v>20</v>
       </c>
@@ -8731,7 +10474,7 @@
         <v>P25DW01M03</v>
       </c>
       <c r="E216" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>3</v>
@@ -8751,9 +10494,17 @@
       <c r="K216" t="s">
         <v>57</v>
       </c>
-      <c r="L216" s="2"/>
-    </row>
-    <row r="217" spans="1:12" ht="15.7">
+      <c r="L216" t="s">
+        <v>127</v>
+      </c>
+      <c r="M216" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="15.75">
       <c r="A217" s="2" t="s">
         <v>20</v>
       </c>
@@ -8768,7 +10519,7 @@
         <v>P25DW01M04</v>
       </c>
       <c r="E217" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>3</v>
@@ -8783,14 +10534,22 @@
         <v>0.5</v>
       </c>
       <c r="J217" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K217" t="s">
         <v>79</v>
       </c>
-      <c r="K217" t="s">
-        <v>80</v>
-      </c>
-      <c r="L217" s="2"/>
-    </row>
-    <row r="218" spans="1:12" ht="15.7">
+      <c r="L217" t="s">
+        <v>127</v>
+      </c>
+      <c r="M217" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="15.75">
       <c r="A218" s="2" t="s">
         <v>20</v>
       </c>
@@ -8805,7 +10564,7 @@
         <v>P25DW01M01</v>
       </c>
       <c r="E218" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>3</v>
@@ -8820,14 +10579,22 @@
         <v>62.5</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K218" t="s">
-        <v>100</v>
-      </c>
-      <c r="L218" s="2"/>
-    </row>
-    <row r="219" spans="1:12" ht="15.7">
+        <v>98</v>
+      </c>
+      <c r="L218" t="s">
+        <v>127</v>
+      </c>
+      <c r="M218" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="15.75">
       <c r="A219" s="5" t="s">
         <v>20</v>
       </c>
@@ -8842,7 +10609,7 @@
         <v>P25DW01M05</v>
       </c>
       <c r="E219" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>3</v>
@@ -8857,14 +10624,22 @@
         <v>0.5</v>
       </c>
       <c r="J219" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K219" t="s">
-        <v>116</v>
-      </c>
-      <c r="L219" s="5"/>
-    </row>
-    <row r="220" spans="1:12" ht="15.7">
+        <v>114</v>
+      </c>
+      <c r="L219" t="s">
+        <v>127</v>
+      </c>
+      <c r="M219" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="15.75">
       <c r="A220" s="2" t="s">
         <v>20</v>
       </c>
@@ -8879,7 +10654,7 @@
         <v>P25EP01M01</v>
       </c>
       <c r="E220" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>39</v>
@@ -8899,9 +10674,17 @@
       <c r="K220" t="s">
         <v>60</v>
       </c>
-      <c r="L220" s="2"/>
-    </row>
-    <row r="221" spans="1:12" ht="15.7">
+      <c r="L220" t="s">
+        <v>127</v>
+      </c>
+      <c r="M220" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="15.75">
       <c r="A221" s="2" t="s">
         <v>20</v>
       </c>
@@ -8916,7 +10699,7 @@
         <v>P25EP02M01</v>
       </c>
       <c r="E221" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>40</v>
@@ -8936,9 +10719,17 @@
       <c r="K221" t="s">
         <v>60</v>
       </c>
-      <c r="L221" s="2"/>
-    </row>
-    <row r="222" spans="1:12" ht="15.7">
+      <c r="L221" t="s">
+        <v>127</v>
+      </c>
+      <c r="M221" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="15.75">
       <c r="A222" s="2" t="s">
         <v>20</v>
       </c>
@@ -8953,7 +10744,7 @@
         <v>P25EP02M03</v>
       </c>
       <c r="E222" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>40</v>
@@ -8973,9 +10764,17 @@
       <c r="K222" t="s">
         <v>60</v>
       </c>
-      <c r="L222" s="2"/>
-    </row>
-    <row r="223" spans="1:12" ht="15.7">
+      <c r="L222" t="s">
+        <v>127</v>
+      </c>
+      <c r="M222" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="15.75">
       <c r="A223" s="2" t="s">
         <v>20</v>
       </c>
@@ -8990,7 +10789,7 @@
         <v>P25EP02M02</v>
       </c>
       <c r="E223" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>40</v>
@@ -9005,14 +10804,22 @@
         <v>0.1</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K223" t="s">
-        <v>116</v>
-      </c>
-      <c r="L223" s="2"/>
-    </row>
-    <row r="224" spans="1:12" ht="15.7">
+        <v>114</v>
+      </c>
+      <c r="L223" t="s">
+        <v>127</v>
+      </c>
+      <c r="M223" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="15.75">
       <c r="A224" s="2" t="s">
         <v>20</v>
       </c>
@@ -9027,7 +10834,7 @@
         <v>P25EP03M02</v>
       </c>
       <c r="E224" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>35</v>
@@ -9042,14 +10849,22 @@
         <v>3</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K224" t="s">
         <v>53</v>
       </c>
-      <c r="L224" s="2"/>
-    </row>
-    <row r="225" spans="1:12" ht="15.7">
+      <c r="L224" t="s">
+        <v>127</v>
+      </c>
+      <c r="M224" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15.75">
       <c r="A225" s="2" t="s">
         <v>20</v>
       </c>
@@ -9064,7 +10879,7 @@
         <v>P25EP03M01</v>
       </c>
       <c r="E225" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>35</v>
@@ -9084,9 +10899,17 @@
       <c r="K225" t="s">
         <v>60</v>
       </c>
-      <c r="L225" s="2"/>
-    </row>
-    <row r="226" spans="1:12" ht="15.7">
+      <c r="L225" t="s">
+        <v>127</v>
+      </c>
+      <c r="M225" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="15.75">
       <c r="A226" s="2" t="s">
         <v>20</v>
       </c>
@@ -9101,7 +10924,7 @@
         <v>P25EP03M03</v>
       </c>
       <c r="E226" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>35</v>
@@ -9121,9 +10944,17 @@
       <c r="K226" t="s">
         <v>60</v>
       </c>
-      <c r="L226" s="2"/>
-    </row>
-    <row r="227" spans="1:12" ht="15.7">
+      <c r="L226" t="s">
+        <v>127</v>
+      </c>
+      <c r="M226" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="15.75">
       <c r="A227" s="2" t="s">
         <v>20</v>
       </c>
@@ -9138,7 +10969,7 @@
         <v>P25EP03M04</v>
       </c>
       <c r="E227" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>35</v>
@@ -9158,9 +10989,17 @@
       <c r="K227" t="s">
         <v>72</v>
       </c>
-      <c r="L227" s="2"/>
-    </row>
-    <row r="228" spans="1:12" ht="15.7">
+      <c r="L227" t="s">
+        <v>127</v>
+      </c>
+      <c r="M227" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="15.75">
       <c r="A228" s="2" t="s">
         <v>20</v>
       </c>
@@ -9175,7 +11014,7 @@
         <v>P25SL01M03</v>
       </c>
       <c r="E228" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>3</v>
@@ -9195,9 +11034,17 @@
       <c r="K228" t="s">
         <v>57</v>
       </c>
-      <c r="L228" s="2"/>
-    </row>
-    <row r="229" spans="1:12" ht="15.7">
+      <c r="L228" t="s">
+        <v>127</v>
+      </c>
+      <c r="M228" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="15.75">
       <c r="A229" s="2" t="s">
         <v>20</v>
       </c>
@@ -9205,14 +11052,14 @@
         <v>42</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D229" s="4" t="str">
         <f t="shared" si="3"/>
         <v>P25SL01M08</v>
       </c>
       <c r="E229" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>3</v>
@@ -9227,14 +11074,22 @@
         <v>3</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K229" t="s">
         <v>53</v>
       </c>
-      <c r="L229" s="2"/>
-    </row>
-    <row r="230" spans="1:12" ht="15.7">
+      <c r="L229" t="s">
+        <v>127</v>
+      </c>
+      <c r="M229" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="15.75">
       <c r="A230" s="2" t="s">
         <v>20</v>
       </c>
@@ -9249,7 +11104,7 @@
         <v>P25SL01M02</v>
       </c>
       <c r="E230" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>3</v>
@@ -9264,14 +11119,22 @@
         <v>37.5</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K230" t="s">
-        <v>100</v>
-      </c>
-      <c r="L230" s="2"/>
-    </row>
-    <row r="231" spans="1:12" ht="15.7">
+        <v>98</v>
+      </c>
+      <c r="L230" t="s">
+        <v>127</v>
+      </c>
+      <c r="M230" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="15.75">
       <c r="A231" s="2" t="s">
         <v>20</v>
       </c>
@@ -9286,7 +11149,7 @@
         <v>P25SL01M06</v>
       </c>
       <c r="E231" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>3</v>
@@ -9301,14 +11164,22 @@
         <v>0.1</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K231" t="s">
-        <v>100</v>
-      </c>
-      <c r="L231" s="2"/>
-    </row>
-    <row r="232" spans="1:12" ht="15.7">
+        <v>98</v>
+      </c>
+      <c r="L231" t="s">
+        <v>127</v>
+      </c>
+      <c r="M231" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="15.75">
       <c r="A232" s="2" t="s">
         <v>20</v>
       </c>
@@ -9316,14 +11187,14 @@
         <v>42</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D232" s="4" t="str">
         <f t="shared" si="3"/>
         <v>P25SL01M07</v>
       </c>
       <c r="E232" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>3</v>
@@ -9338,14 +11209,22 @@
         <v>0.1</v>
       </c>
       <c r="J232" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K232" t="s">
         <v>79</v>
       </c>
-      <c r="K232" t="s">
-        <v>80</v>
-      </c>
-      <c r="L232" s="2"/>
-    </row>
-    <row r="233" spans="1:12" ht="15.7">
+      <c r="L232" t="s">
+        <v>127</v>
+      </c>
+      <c r="M232" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="15.75">
       <c r="A233" s="2" t="s">
         <v>20</v>
       </c>
@@ -9360,7 +11239,7 @@
         <v>P25SL01M01</v>
       </c>
       <c r="E233" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>3</v>
@@ -9375,14 +11254,22 @@
         <v>3</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K233" t="s">
-        <v>100</v>
-      </c>
-      <c r="L233" s="2"/>
-    </row>
-    <row r="234" spans="1:12" ht="15.7">
+        <v>98</v>
+      </c>
+      <c r="L233" t="s">
+        <v>127</v>
+      </c>
+      <c r="M233" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="15.75">
       <c r="A234" s="2" t="s">
         <v>20</v>
       </c>
@@ -9397,7 +11284,7 @@
         <v>P25SL01M05</v>
       </c>
       <c r="E234" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>3</v>
@@ -9412,14 +11299,22 @@
         <v>0.5</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K234" t="s">
         <v>53</v>
       </c>
-      <c r="L234" s="2"/>
-    </row>
-    <row r="235" spans="1:12" ht="15.7">
+      <c r="L234" t="s">
+        <v>127</v>
+      </c>
+      <c r="M234" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="15.75">
       <c r="A235" s="5" t="s">
         <v>21</v>
       </c>
@@ -9434,7 +11329,7 @@
         <v>P26DW01M02</v>
       </c>
       <c r="E235" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>3</v>
@@ -9454,9 +11349,17 @@
       <c r="K235" t="s">
         <v>53</v>
       </c>
-      <c r="L235" s="5"/>
-    </row>
-    <row r="236" spans="1:12" ht="15.7">
+      <c r="L235" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M235" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N235" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="15.75">
       <c r="A236" s="5" t="s">
         <v>21</v>
       </c>
@@ -9471,7 +11374,7 @@
         <v>P26DW01M01</v>
       </c>
       <c r="E236" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>3</v>
@@ -9491,9 +11394,17 @@
       <c r="K236" t="s">
         <v>60</v>
       </c>
-      <c r="L236" s="5"/>
-    </row>
-    <row r="237" spans="1:12" ht="15.7">
+      <c r="L236" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M236" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N236" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="15.75">
       <c r="A237" s="5" t="s">
         <v>21</v>
       </c>
@@ -9508,7 +11419,7 @@
         <v>P26EP01M01</v>
       </c>
       <c r="E237" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>38</v>
@@ -9528,9 +11439,17 @@
       <c r="K237" t="s">
         <v>60</v>
       </c>
-      <c r="L237" s="5"/>
-    </row>
-    <row r="238" spans="1:12" ht="15.7">
+      <c r="L237" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M237" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N237" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="15.75">
       <c r="A238" s="5" t="s">
         <v>21</v>
       </c>
@@ -9545,7 +11464,7 @@
         <v>P26EP01M02</v>
       </c>
       <c r="E238" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>38</v>
@@ -9565,9 +11484,17 @@
       <c r="K238" t="s">
         <v>60</v>
       </c>
-      <c r="L238" s="5"/>
-    </row>
-    <row r="239" spans="1:12" ht="15.7">
+      <c r="L238" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M238" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N238" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="15.75">
       <c r="A239" s="5" t="s">
         <v>21</v>
       </c>
@@ -9582,7 +11509,7 @@
         <v>P26EP02M01</v>
       </c>
       <c r="E239" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>29</v>
@@ -9602,9 +11529,17 @@
       <c r="K239" t="s">
         <v>60</v>
       </c>
-      <c r="L239" s="5"/>
-    </row>
-    <row r="240" spans="1:12" ht="15.7">
+      <c r="L239" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M239" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N239" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="15.75">
       <c r="A240" s="5" t="s">
         <v>21</v>
       </c>
@@ -9619,7 +11554,7 @@
         <v>P26SL01M04</v>
       </c>
       <c r="E240" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>3</v>
@@ -9639,9 +11574,17 @@
       <c r="K240" t="s">
         <v>53</v>
       </c>
-      <c r="L240" s="5"/>
-    </row>
-    <row r="241" spans="1:12" ht="15.7">
+      <c r="L240" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M240" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N240" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="15.75">
       <c r="A241" s="5" t="s">
         <v>21</v>
       </c>
@@ -9656,7 +11599,7 @@
         <v>P26SL01M01</v>
       </c>
       <c r="E241" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>3</v>
@@ -9671,14 +11614,22 @@
         <v>3</v>
       </c>
       <c r="J241" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K241" t="s">
         <v>53</v>
       </c>
-      <c r="L241" s="5"/>
-    </row>
-    <row r="242" spans="1:12" ht="15.7">
+      <c r="L241" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M241" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N241" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="15.75">
       <c r="A242" s="5" t="s">
         <v>21</v>
       </c>
@@ -9693,7 +11644,7 @@
         <v>P26SL01M02</v>
       </c>
       <c r="E242" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>3</v>
@@ -9708,14 +11659,22 @@
         <v>3</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K242" t="s">
         <v>53</v>
       </c>
-      <c r="L242" s="5"/>
-    </row>
-    <row r="243" spans="1:12" ht="15.7">
+      <c r="L242" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M242" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N242" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="15.75">
       <c r="A243" s="5" t="s">
         <v>21</v>
       </c>
@@ -9730,7 +11689,7 @@
         <v>P26SL01M03</v>
       </c>
       <c r="E243" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>3</v>
@@ -9745,14 +11704,22 @@
         <v>3</v>
       </c>
       <c r="J243" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K243" t="s">
         <v>79</v>
       </c>
-      <c r="K243" t="s">
-        <v>80</v>
-      </c>
-      <c r="L243" s="5"/>
-    </row>
-    <row r="244" spans="1:12" ht="15.7">
+      <c r="L243" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M243" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N243" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="15.75">
       <c r="A244" s="2" t="s">
         <v>22</v>
       </c>
@@ -9787,9 +11754,17 @@
       <c r="K244" t="s">
         <v>57</v>
       </c>
-      <c r="L244" s="2"/>
-    </row>
-    <row r="245" spans="1:12" ht="15.7">
+      <c r="L244" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M244" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N244">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="15.75">
       <c r="A245" s="2" t="s">
         <v>22</v>
       </c>
@@ -9824,9 +11799,17 @@
       <c r="K245" t="s">
         <v>60</v>
       </c>
-      <c r="L245" s="2"/>
-    </row>
-    <row r="246" spans="1:12" ht="15.7">
+      <c r="L245" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M245" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N245">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="15.75">
       <c r="A246" s="2" t="s">
         <v>22</v>
       </c>
@@ -9861,9 +11844,17 @@
       <c r="K246" t="s">
         <v>60</v>
       </c>
-      <c r="L246" s="2"/>
-    </row>
-    <row r="247" spans="1:12" ht="15.7">
+      <c r="L246" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M246" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N246">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="15.75">
       <c r="A247" s="2" t="s">
         <v>22</v>
       </c>
@@ -9898,9 +11889,17 @@
       <c r="K247" t="s">
         <v>57</v>
       </c>
-      <c r="L247" s="2"/>
-    </row>
-    <row r="248" spans="1:12" ht="15.7">
+      <c r="L247" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M247" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N247">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="15.75">
       <c r="A248" s="2" t="s">
         <v>22</v>
       </c>
@@ -9935,9 +11934,17 @@
       <c r="K248" t="s">
         <v>53</v>
       </c>
-      <c r="L248" s="2"/>
-    </row>
-    <row r="249" spans="1:12" ht="15.7">
+      <c r="L248" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M248" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N248">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="15.75">
       <c r="A249" s="2" t="s">
         <v>22</v>
       </c>
@@ -9972,9 +11979,17 @@
       <c r="K249" t="s">
         <v>57</v>
       </c>
-      <c r="L249" s="2"/>
-    </row>
-    <row r="250" spans="1:12" ht="15.7">
+      <c r="L249" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M249" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N249">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="15.75">
       <c r="A250" s="2" t="s">
         <v>22</v>
       </c>
@@ -10004,14 +12019,22 @@
         <v>3</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K250" t="s">
         <v>53</v>
       </c>
-      <c r="L250" s="2"/>
-    </row>
-    <row r="251" spans="1:12" ht="15.7">
+      <c r="L250" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M250" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N250">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="15.75">
       <c r="A251" s="2" t="s">
         <v>22</v>
       </c>
@@ -10019,7 +12042,7 @@
         <v>42</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D251" s="4" t="str">
         <f t="shared" si="3"/>
@@ -10046,9 +12069,17 @@
       <c r="K251" t="s">
         <v>60</v>
       </c>
-      <c r="L251" s="2"/>
-    </row>
-    <row r="252" spans="1:12" ht="15.7">
+      <c r="L251" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M251" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N251">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="15.75">
       <c r="A252" s="2" t="s">
         <v>22</v>
       </c>
@@ -10078,14 +12109,22 @@
         <v>15</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K252" t="s">
         <v>63</v>
       </c>
-      <c r="L252" s="2"/>
-    </row>
-    <row r="253" spans="1:12" ht="15.7">
+      <c r="L252" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M252" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N252">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="15.75">
       <c r="A253" s="2" t="s">
         <v>22</v>
       </c>
@@ -10093,7 +12132,7 @@
         <v>42</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D253" s="4" t="str">
         <f t="shared" si="3"/>
@@ -10115,14 +12154,22 @@
         <v>3</v>
       </c>
       <c r="J253" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K253" t="s">
         <v>79</v>
       </c>
-      <c r="K253" t="s">
-        <v>80</v>
-      </c>
-      <c r="L253" s="2"/>
-    </row>
-    <row r="254" spans="1:12" ht="15.7">
+      <c r="L253" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M253" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N253">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="15.75">
       <c r="A254" s="2" t="s">
         <v>22</v>
       </c>
@@ -10152,14 +12199,22 @@
         <v>3</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K254" t="s">
         <v>53</v>
       </c>
-      <c r="L254" s="2"/>
-    </row>
-    <row r="255" spans="1:12" ht="15.7">
+      <c r="L254" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M254" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N254">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="15.75">
       <c r="A255" s="5" t="s">
         <v>23</v>
       </c>
@@ -10194,9 +12249,17 @@
       <c r="K255" t="s">
         <v>53</v>
       </c>
-      <c r="L255" s="5"/>
-    </row>
-    <row r="256" spans="1:12" ht="15.7">
+      <c r="L255" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M255" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N255">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="15.75">
       <c r="A256" s="5" t="s">
         <v>23</v>
       </c>
@@ -10231,9 +12294,17 @@
       <c r="K256" t="s">
         <v>60</v>
       </c>
-      <c r="L256" s="5"/>
-    </row>
-    <row r="257" spans="1:12" ht="15.7">
+      <c r="L256" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M256" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N256">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="15.75">
       <c r="A257" s="5" t="s">
         <v>23</v>
       </c>
@@ -10268,9 +12339,17 @@
       <c r="K257" t="s">
         <v>53</v>
       </c>
-      <c r="L257" s="5"/>
-    </row>
-    <row r="258" spans="1:12" ht="15.7">
+      <c r="L257" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M257" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N257">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="15.75">
       <c r="A258" s="5" t="s">
         <v>23</v>
       </c>
@@ -10281,7 +12360,7 @@
         <v>58</v>
       </c>
       <c r="D258" s="4" t="str">
-        <f t="shared" ref="D258:D321" si="4">A258&amp;B258&amp;C258</f>
+        <f t="shared" ref="D258:D268" si="4">A258&amp;B258&amp;C258</f>
         <v>P28EP01M01</v>
       </c>
       <c r="E258" t="s">
@@ -10305,9 +12384,17 @@
       <c r="K258" t="s">
         <v>60</v>
       </c>
-      <c r="L258" s="5"/>
-    </row>
-    <row r="259" spans="1:12" ht="15.7">
+      <c r="L258" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M258" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N258">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="15.75">
       <c r="A259" s="2" t="s">
         <v>23</v>
       </c>
@@ -10337,14 +12424,22 @@
         <v>0.1</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K259" t="s">
-        <v>80</v>
-      </c>
-      <c r="L259" s="2"/>
-    </row>
-    <row r="260" spans="1:12" ht="15.7">
+        <v>79</v>
+      </c>
+      <c r="L259" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M259" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N259">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="15.75">
       <c r="A260" s="5" t="s">
         <v>23</v>
       </c>
@@ -10379,9 +12474,17 @@
       <c r="K260" t="s">
         <v>53</v>
       </c>
-      <c r="L260" s="5"/>
-    </row>
-    <row r="261" spans="1:12" ht="15.7">
+      <c r="L260" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M260" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N260">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="15.75">
       <c r="A261" s="5" t="s">
         <v>23</v>
       </c>
@@ -10411,14 +12514,22 @@
         <v>0.1</v>
       </c>
       <c r="J261" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K261" t="s">
         <v>53</v>
       </c>
-      <c r="L261" s="5"/>
-    </row>
-    <row r="262" spans="1:12" ht="15.7">
+      <c r="L261" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M261" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N261">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="15.75">
       <c r="A262" s="5" t="s">
         <v>24</v>
       </c>
@@ -10448,14 +12559,22 @@
         <v>62.5</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K262" t="s">
-        <v>80</v>
-      </c>
-      <c r="L262" s="5"/>
-    </row>
-    <row r="263" spans="1:12" ht="15.7">
+        <v>79</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M262" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N262">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="15.75">
       <c r="A263" s="5" t="s">
         <v>24</v>
       </c>
@@ -10490,9 +12609,17 @@
       <c r="K263" t="s">
         <v>53</v>
       </c>
-      <c r="L263" s="5"/>
-    </row>
-    <row r="264" spans="1:12" ht="15.7">
+      <c r="L263" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M263" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N263">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="15.75">
       <c r="A264" s="5" t="s">
         <v>24</v>
       </c>
@@ -10522,14 +12649,22 @@
         <v>0.1</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K264" t="s">
-        <v>105</v>
-      </c>
-      <c r="L264" s="5"/>
-    </row>
-    <row r="265" spans="1:12" ht="15.7">
+        <v>103</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M264" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N264">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="15.75">
       <c r="A265" s="5" t="s">
         <v>24</v>
       </c>
@@ -10564,9 +12699,17 @@
       <c r="K265" t="s">
         <v>60</v>
       </c>
-      <c r="L265" s="5"/>
-    </row>
-    <row r="266" spans="1:12" ht="15.7">
+      <c r="L265" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M265" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N265">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="15.75">
       <c r="A266" s="5" t="s">
         <v>24</v>
       </c>
@@ -10599,9 +12742,17 @@
       <c r="K266" t="s">
         <v>60</v>
       </c>
-      <c r="L266" s="5"/>
-    </row>
-    <row r="267" spans="1:12" ht="15.7">
+      <c r="L266" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M266" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N266">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="15.75">
       <c r="A267" s="5" t="s">
         <v>24</v>
       </c>
@@ -10636,9 +12787,17 @@
       <c r="K267" t="s">
         <v>60</v>
       </c>
-      <c r="L267" s="5"/>
-    </row>
-    <row r="268" spans="1:12" ht="15.7">
+      <c r="L267" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M267" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N267">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="15.75">
       <c r="A268" s="5" t="s">
         <v>24</v>
       </c>
@@ -10668,12 +12827,20 @@
         <v>3</v>
       </c>
       <c r="J268" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K268" t="s">
         <v>79</v>
       </c>
-      <c r="K268" t="s">
-        <v>80</v>
-      </c>
-      <c r="L268" s="5"/>
+      <c r="L268" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M268" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N268">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
